--- a/P4_CreateReportDB/top_products_supplier.xlsx
+++ b/P4_CreateReportDB/top_products_supplier.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\become-business-analyst\P4_CreateReportDB\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7603D91F-E70C-4584-82DB-074B7DB84562}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="top_products_supplier" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -61,8 +55,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -654,24 +648,24 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -686,15 +680,15 @@
     <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -711,18 +705,8 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -764,7 +748,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -772,40 +756,12 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -858,7 +814,6 @@
               </a:outerShdw>
             </a:effectLst>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>top_products_supplier!$A$2:$A$11</c:f>
@@ -936,35 +891,26 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-98F2-44C9-815D-E5909DF52433}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="593391472"/>
-        <c:axId val="593394424"/>
+        <c:axId val="230934016"/>
+        <c:axId val="230935936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="593391472"/>
+        <c:axId val="230934016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -998,19 +944,17 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="593394424"/>
+        <c:crossAx val="230935936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="593394424"/>
+        <c:axId val="230935936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1028,7 +972,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1056,7 +999,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="593391472"/>
+        <c:crossAx val="230934016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1070,7 +1013,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -1108,6 +1050,198 @@
       <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" algn="tr" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>需求量前</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" algn="tr" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>10</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" algn="tr" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>的产品各有多少供应商供货</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>top_products_supplier!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SupplierNum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>top_products_supplier!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Camembert Pierrot</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Chang</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Gnocchi di nonna Alice</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Gorgonzola Telino</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Guaran锟?Fant锟絪tica</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jack's New England Clam Chowder</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Pavlova</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Raclette Courdavault</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Rh锟絥br锟絬 Klosterbier</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Tarte au sucre</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>top_products_supplier!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="127148032"/>
+        <c:axId val="127149568"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="127148032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="127149568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="127149568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="127148032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -1656,23 +1790,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>319087</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>52387</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0978C655-191F-4783-B601-584A434A7CD6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0978C655-191F-4783-B601-584A434A7CD6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1685,6 +1819,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1736,7 +1900,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1788,7 +1952,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1982,23 +2146,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2006,7 +2170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2014,7 +2178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2022,7 +2186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2030,7 +2194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2038,7 +2202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2046,7 +2210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2054,7 +2218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2062,7 +2226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2070,7 +2234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2078,7 +2242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>11</v>
       </c>

--- a/P4_CreateReportDB/top_products_supplier.xlsx
+++ b/P4_CreateReportDB/top_products_supplier.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\become-business-analyst\P4_CreateReportDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48447A12-4CD9-4F7A-9B1F-02DDDB32A0BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7603D91F-E70C-4584-82DB-074B7DB84562}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="top_products_supplier" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -731,39 +731,36 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
                   </a:schemeClr>
                 </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" b="1">
-                <a:effectLst/>
-              </a:rPr>
+              <a:rPr lang="zh-CN"/>
               <a:t>需求量前</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" b="1">
-                <a:effectLst/>
-              </a:rPr>
+              <a:rPr lang="en-US"/>
               <a:t>10</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" b="1">
-                <a:effectLst/>
-              </a:rPr>
+              <a:rPr lang="zh-CN"/>
               <a:t>的产品各有多少供应商供货</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" b="0">
-              <a:effectLst/>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -780,13 +777,19 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -818,13 +821,42 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -918,8 +950,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
         <c:axId val="593391472"/>
         <c:axId val="593394424"/>
       </c:barChart>
@@ -936,11 +968,11 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -954,9 +986,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -985,9 +1016,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1013,9 +1044,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1043,17 +1073,28 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -1116,35 +1157,33 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1152,26 +1191,34 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -1180,9 +1227,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1201,14 +1247,6 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -1217,35 +1255,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1257,30 +1295,31 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1296,21 +1335,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1320,20 +1356,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1344,17 +1380,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -1363,14 +1399,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1382,28 +1417,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1415,111 +1444,118 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1531,12 +1567,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1545,14 +1588,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1561,9 +1603,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1573,7 +1614,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1581,9 +1622,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1594,9 +1635,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1606,14 +1646,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1955,7 +1989,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
